--- a/biology/Zoologie/Ceriagrion/Ceriagrion.xlsx
+++ b/biology/Zoologie/Ceriagrion/Ceriagrion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceriagrion est un genre d'insectes odonates zygoptères de la famille des Coenagrionidae.
 </t>
@@ -511,11 +523,13 @@
           <t>Espèces européennes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Fauna Europaea                                      (30 juillet 2016)[1] :
-Ceriagrion georgifreyi Schmidt, 1953 – Turkish Red Damsel (« demoiselle rouge turque »)[2]
-Ceriagrion tenellum (de Villers, 1789) – le « cériagrion délicat » ou l'« agrion délicat » en français. En anglais : Small Red Damselfly (« petite demoiselle rouge »)[3]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Fauna Europaea                                      (30 juillet 2016) :
+Ceriagrion georgifreyi Schmidt, 1953 – Turkish Red Damsel (« demoiselle rouge turque »)
+Ceriagrion tenellum (de Villers, 1789) – le « cériagrion délicat » ou l'« agrion délicat » en français. En anglais : Small Red Damselfly (« petite demoiselle rouge »)</t>
         </is>
       </c>
     </row>
@@ -543,10 +557,12 @@
           <t>Autres espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'autres espèces selon notamment World Odonata List[4] :
-Ceriagrion aeruginosum (Brauer, 1869) – Redtail[5]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'autres espèces selon notamment World Odonata List :
+Ceriagrion aeruginosum (Brauer, 1869) – Redtail
 Ceriagrion annulatum Fraser, 1955
 Ceriagrion annulosum Lieftinck, 1934
 Ceriagrion auranticum Fraser, 1922
@@ -563,7 +579,7 @@
 Ceriagrion corallinum Campion, 1914
 Ceriagrion coromandelianum (Fabricius, 1798)
 Ceriagrion fallax Ris, 1914
-Ceriagrion glabrum (Burmeister, 1839) – Common Orange, Common Pond-damsel[6], Common Citril[7]
+Ceriagrion glabrum (Burmeister, 1839) – Common Orange, Common Pond-damsel, Common Citril
 Ceriagrion hamoni Fraser, 1955
 Ceriagrion hoogerwerfi Lieftinck, 1940
 Ceriagrion ignitum Campion, 1914
@@ -588,7 +604,7 @@
 Ceriagrion rubiae Laidlaw, 1916
 Ceriagrion sakejii Pinhey, 1963
 Ceriagrion sinense Asahina, 1967
-Ceriagrion suave Ris, 1921 – Suave Citril[7]
+Ceriagrion suave Ris, 1921 – Suave Citril
 Ceriagrion tricrenaticeps Legrand, 1984
 Ceriagrion varians (Martin, 1908)
 Ceriagrion whellani Longfield, 1952
